--- a/Mod_Korean/Lang/KR/Dialog/Drama/tyche.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/tyche.xlsx
@@ -433,7 +433,7 @@
         <family val="0"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">… 에, 지하에 기계들이 일하는 공장이 있는데, 거대 로봇한테 습격당했다고?!</t>
+      <t xml:space="preserve">… 에, 지하에 기계들이 일하는 공장이 있고, 거대 로봇한테 습격당했다고?!</t>
     </r>
   </si>
   <si>
@@ -506,7 +506,7 @@
         <family val="0"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">…뭐어, 괜찮아! 저 씩씩한 사장님이라면, 지하농장 같은 게 없어도 어떻게든 잘 해낼 게 분명하니까☆
+      <t xml:space="preserve">…뭐어, 괜찮아! 저 듬직한 사장님이라면, 지하농장 같은 게 없어도 어떻게든 잘 해낼 게 분명하니까☆
 알겠어, #pc 씨? 너도 모험가라면 기억해 둬. 모험의 결말이라는 게 항상 해피 엔딩으로 끝나지는 않는다는 걸.</t>
     </r>
   </si>
@@ -558,7 +558,7 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-…아 맞다, 만약 그 씨앗으로 부족해지면, 여기 사장님이 팔아주실 지도 몰라.</t>
+…아 맞다, 만약 그 씨앗이 부족해지면, 여기 사장님이 팔아주실 지도 몰라.</t>
     </r>
   </si>
   <si>
@@ -967,10 +967,10 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
